--- a/templates/youtube.xlsx
+++ b/templates/youtube.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="195" windowWidth="20730" windowHeight="11640" tabRatio="737" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="195" windowWidth="20730" windowHeight="11640" tabRatio="737"/>
   </bookViews>
   <sheets>
     <sheet name="Desktop Dis" sheetId="16" r:id="rId1"/>
@@ -769,10 +769,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF123"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection activeCell="A22" sqref="A22"/>
-      <selection pane="topRight" activeCell="B63" sqref="B63:AE118"/>
+    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5336,10 +5335,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF118"/>
   <sheetViews>
-    <sheetView topLeftCell="A92" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
-      <selection activeCell="A22" sqref="A22"/>
-      <selection pane="topRight" activeCell="B63" sqref="B63:AE118"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9900,10 +9898,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF118"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
-      <selection activeCell="A22" sqref="A22"/>
-      <selection pane="topRight" activeCell="E63" sqref="E63:AE118"/>
+    <sheetView topLeftCell="A97" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14968,10 +14965,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
-      <selection activeCell="A22" sqref="A22"/>
-      <selection pane="topRight" activeCell="B63" sqref="B63:AE118"/>
+    <sheetView topLeftCell="A73" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -19532,10 +19528,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF118"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A58" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection activeCell="A22" sqref="A22"/>
-      <selection pane="topRight" activeCell="B3" sqref="B3"/>
+      <selection pane="topRight" activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -34187,8 +34182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/templates/youtube.xlsx
+++ b/templates/youtube.xlsx
@@ -19,9 +19,6 @@
     <sheet name="Total" sheetId="15" r:id="rId5"/>
     <sheet name="SUM" sheetId="31" r:id="rId6"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId7"/>
-  </externalReferences>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
@@ -443,43 +440,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Total"/>
-      <sheetName val="Search"/>
-      <sheetName val="Display"/>
-      <sheetName val="Online VDO"/>
-      <sheetName val="YouTube"/>
-      <sheetName val="Facebook"/>
-      <sheetName val="Instagram"/>
-      <sheetName val="Twitter"/>
-      <sheetName val="Line"/>
-      <sheetName val="Instant Messaging"/>
-      <sheetName val="Social"/>
-      <sheetName val="Creative"/>
-      <sheetName val="Others"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -12265,15 +12225,12 @@
         <v>0</v>
       </c>
       <c r="B63" s="7">
-        <f>B3*[1]YouTube!B3</f>
         <v>0</v>
       </c>
       <c r="C63" s="7">
-        <f>C3*[1]YouTube!C3</f>
         <v>0</v>
       </c>
       <c r="D63" s="7">
-        <f>D3*[1]YouTube!D3</f>
         <v>0</v>
       </c>
       <c r="E63" s="7"/>
@@ -12313,15 +12270,12 @@
         <v>1</v>
       </c>
       <c r="B64" s="7">
-        <f>B4*[1]YouTube!B4</f>
         <v>0</v>
       </c>
       <c r="C64" s="7">
-        <f>C4*[1]YouTube!C4</f>
         <v>0</v>
       </c>
       <c r="D64" s="7">
-        <f>D4*[1]YouTube!D4</f>
         <v>0</v>
       </c>
       <c r="E64" s="7"/>
@@ -12361,15 +12315,12 @@
         <v>2</v>
       </c>
       <c r="B65" s="7">
-        <f>B5*[1]YouTube!B5</f>
         <v>0</v>
       </c>
       <c r="C65" s="7">
-        <f>C5*[1]YouTube!C5</f>
         <v>0</v>
       </c>
       <c r="D65" s="7">
-        <f>D5*[1]YouTube!D5</f>
         <v>0</v>
       </c>
       <c r="E65" s="7"/>
@@ -12409,15 +12360,12 @@
         <v>3</v>
       </c>
       <c r="B66" s="7">
-        <f>B6*[1]YouTube!B6</f>
         <v>0</v>
       </c>
       <c r="C66" s="7">
-        <f>C6*[1]YouTube!C6</f>
         <v>0</v>
       </c>
       <c r="D66" s="7">
-        <f>D6*[1]YouTube!D6</f>
         <v>0</v>
       </c>
       <c r="E66" s="7"/>
@@ -12457,15 +12405,12 @@
         <v>4</v>
       </c>
       <c r="B67" s="7">
-        <f>B7*[1]YouTube!B7</f>
         <v>0</v>
       </c>
       <c r="C67" s="7">
-        <f>C7*[1]YouTube!C7</f>
         <v>0</v>
       </c>
       <c r="D67" s="7">
-        <f>D7*[1]YouTube!D7</f>
         <v>0</v>
       </c>
       <c r="E67" s="7"/>
@@ -12505,15 +12450,12 @@
         <v>5</v>
       </c>
       <c r="B68" s="7">
-        <f>B8*[1]YouTube!B8</f>
         <v>0</v>
       </c>
       <c r="C68" s="7">
-        <f>C8*[1]YouTube!C8</f>
         <v>0</v>
       </c>
       <c r="D68" s="7">
-        <f>D8*[1]YouTube!D8</f>
         <v>0</v>
       </c>
       <c r="E68" s="7"/>
@@ -12553,15 +12495,12 @@
         <v>6</v>
       </c>
       <c r="B69" s="7">
-        <f>B9*[1]YouTube!B9</f>
         <v>0</v>
       </c>
       <c r="C69" s="7">
-        <f>C9*[1]YouTube!C9</f>
         <v>0</v>
       </c>
       <c r="D69" s="7">
-        <f>D9*[1]YouTube!D9</f>
         <v>0</v>
       </c>
       <c r="E69" s="7"/>
@@ -12601,15 +12540,12 @@
         <v>7</v>
       </c>
       <c r="B70" s="7">
-        <f>B10*[1]YouTube!B10</f>
         <v>0</v>
       </c>
       <c r="C70" s="7">
-        <f>C10*[1]YouTube!C10</f>
         <v>0</v>
       </c>
       <c r="D70" s="7">
-        <f>D10*[1]YouTube!D10</f>
         <v>0</v>
       </c>
       <c r="E70" s="7"/>
@@ -12649,15 +12585,12 @@
         <v>8</v>
       </c>
       <c r="B71" s="7">
-        <f>B11*[1]YouTube!B11</f>
         <v>0</v>
       </c>
       <c r="C71" s="7">
-        <f>C11*[1]YouTube!C11</f>
         <v>0</v>
       </c>
       <c r="D71" s="7">
-        <f>D11*[1]YouTube!D11</f>
         <v>0</v>
       </c>
       <c r="E71" s="7"/>
@@ -12697,15 +12630,12 @@
         <v>9</v>
       </c>
       <c r="B72" s="7">
-        <f>B12*[1]YouTube!B12</f>
         <v>0</v>
       </c>
       <c r="C72" s="7">
-        <f>C12*[1]YouTube!C12</f>
         <v>0</v>
       </c>
       <c r="D72" s="7">
-        <f>D12*[1]YouTube!D12</f>
         <v>0</v>
       </c>
       <c r="E72" s="7"/>
@@ -12745,15 +12675,12 @@
         <v>10</v>
       </c>
       <c r="B73" s="7">
-        <f>B13*[1]YouTube!B13</f>
         <v>0</v>
       </c>
       <c r="C73" s="7">
-        <f>C13*[1]YouTube!C13</f>
         <v>0</v>
       </c>
       <c r="D73" s="7">
-        <f>D13*[1]YouTube!D13</f>
         <v>0</v>
       </c>
       <c r="E73" s="7"/>
@@ -12793,15 +12720,12 @@
         <v>11</v>
       </c>
       <c r="B74" s="7">
-        <f>B14*[1]YouTube!B14</f>
         <v>0</v>
       </c>
       <c r="C74" s="7">
-        <f>C14*[1]YouTube!C14</f>
         <v>0</v>
       </c>
       <c r="D74" s="7">
-        <f>D14*[1]YouTube!D14</f>
         <v>0</v>
       </c>
       <c r="E74" s="7"/>
@@ -12841,15 +12765,12 @@
         <v>12</v>
       </c>
       <c r="B75" s="7">
-        <f>B15*[1]YouTube!B15</f>
         <v>0</v>
       </c>
       <c r="C75" s="7">
-        <f>C15*[1]YouTube!C15</f>
         <v>0</v>
       </c>
       <c r="D75" s="7">
-        <f>D15*[1]YouTube!D15</f>
         <v>0</v>
       </c>
       <c r="E75" s="7"/>
@@ -12889,15 +12810,12 @@
         <v>13</v>
       </c>
       <c r="B76" s="7">
-        <f>B16*[1]YouTube!B16</f>
         <v>0</v>
       </c>
       <c r="C76" s="7">
-        <f>C16*[1]YouTube!C16</f>
         <v>0</v>
       </c>
       <c r="D76" s="7">
-        <f>D16*[1]YouTube!D16</f>
         <v>0</v>
       </c>
       <c r="E76" s="7"/>
@@ -12937,15 +12855,12 @@
         <v>14</v>
       </c>
       <c r="B77" s="7">
-        <f>B17*[1]YouTube!B17</f>
         <v>0</v>
       </c>
       <c r="C77" s="7">
-        <f>C17*[1]YouTube!C17</f>
         <v>0</v>
       </c>
       <c r="D77" s="7">
-        <f>D17*[1]YouTube!D17</f>
         <v>0</v>
       </c>
       <c r="E77" s="7"/>
@@ -12985,15 +12900,12 @@
         <v>15</v>
       </c>
       <c r="B78" s="7">
-        <f>B18*[1]YouTube!B18</f>
         <v>0</v>
       </c>
       <c r="C78" s="7">
-        <f>C18*[1]YouTube!C18</f>
         <v>0</v>
       </c>
       <c r="D78" s="7">
-        <f>D18*[1]YouTube!D18</f>
         <v>0</v>
       </c>
       <c r="E78" s="7"/>
@@ -13033,15 +12945,12 @@
         <v>16</v>
       </c>
       <c r="B79" s="7">
-        <f>B19*[1]YouTube!B19</f>
         <v>0</v>
       </c>
       <c r="C79" s="7">
-        <f>C19*[1]YouTube!C19</f>
         <v>0</v>
       </c>
       <c r="D79" s="7">
-        <f>D19*[1]YouTube!D19</f>
         <v>0</v>
       </c>
       <c r="E79" s="7"/>
@@ -13081,15 +12990,12 @@
         <v>17</v>
       </c>
       <c r="B80" s="7">
-        <f>B20*[1]YouTube!B20</f>
         <v>0</v>
       </c>
       <c r="C80" s="7">
-        <f>C20*[1]YouTube!C20</f>
         <v>0</v>
       </c>
       <c r="D80" s="7">
-        <f>D20*[1]YouTube!D20</f>
         <v>0</v>
       </c>
       <c r="E80" s="7"/>
@@ -13129,15 +13035,12 @@
         <v>18</v>
       </c>
       <c r="B81" s="7">
-        <f>B21*[1]YouTube!B21</f>
         <v>0</v>
       </c>
       <c r="C81" s="7">
-        <f>C21*[1]YouTube!C21</f>
         <v>0</v>
       </c>
       <c r="D81" s="7">
-        <f>D21*[1]YouTube!D21</f>
         <v>0</v>
       </c>
       <c r="E81" s="7"/>
@@ -13177,15 +13080,12 @@
         <v>19</v>
       </c>
       <c r="B82" s="7">
-        <f>B22*[1]YouTube!B22</f>
         <v>0</v>
       </c>
       <c r="C82" s="7">
-        <f>C22*[1]YouTube!C22</f>
         <v>0</v>
       </c>
       <c r="D82" s="7">
-        <f>D22*[1]YouTube!D22</f>
         <v>0</v>
       </c>
       <c r="E82" s="7"/>
@@ -13225,15 +13125,12 @@
         <v>20</v>
       </c>
       <c r="B83" s="7">
-        <f>B23*[1]YouTube!B23</f>
         <v>0</v>
       </c>
       <c r="C83" s="7">
-        <f>C23*[1]YouTube!C23</f>
         <v>0</v>
       </c>
       <c r="D83" s="7">
-        <f>D23*[1]YouTube!D23</f>
         <v>0</v>
       </c>
       <c r="E83" s="7"/>
@@ -13273,15 +13170,12 @@
         <v>21</v>
       </c>
       <c r="B84" s="7">
-        <f>B24*[1]YouTube!B24</f>
         <v>0</v>
       </c>
       <c r="C84" s="7">
-        <f>C24*[1]YouTube!C24</f>
         <v>0</v>
       </c>
       <c r="D84" s="7">
-        <f>D24*[1]YouTube!D24</f>
         <v>0</v>
       </c>
       <c r="E84" s="7"/>
@@ -13321,15 +13215,12 @@
         <v>22</v>
       </c>
       <c r="B85" s="7">
-        <f>B25*[1]YouTube!B25</f>
         <v>0</v>
       </c>
       <c r="C85" s="7">
-        <f>C25*[1]YouTube!C25</f>
         <v>0</v>
       </c>
       <c r="D85" s="7">
-        <f>D25*[1]YouTube!D25</f>
         <v>0</v>
       </c>
       <c r="E85" s="7"/>
@@ -13369,15 +13260,12 @@
         <v>23</v>
       </c>
       <c r="B86" s="7">
-        <f>B26*[1]YouTube!B26</f>
         <v>0</v>
       </c>
       <c r="C86" s="7">
-        <f>C26*[1]YouTube!C26</f>
         <v>0</v>
       </c>
       <c r="D86" s="7">
-        <f>D26*[1]YouTube!D26</f>
         <v>0</v>
       </c>
       <c r="E86" s="7"/>
@@ -13417,15 +13305,12 @@
         <v>24</v>
       </c>
       <c r="B87" s="7">
-        <f>B27*[1]YouTube!B27</f>
         <v>0</v>
       </c>
       <c r="C87" s="7">
-        <f>C27*[1]YouTube!C27</f>
         <v>0</v>
       </c>
       <c r="D87" s="7">
-        <f>D27*[1]YouTube!D27</f>
         <v>0</v>
       </c>
       <c r="E87" s="7"/>
@@ -13465,15 +13350,12 @@
         <v>25</v>
       </c>
       <c r="B88" s="7">
-        <f>B28*[1]YouTube!B28</f>
         <v>0</v>
       </c>
       <c r="C88" s="7">
-        <f>C28*[1]YouTube!C28</f>
         <v>0</v>
       </c>
       <c r="D88" s="7">
-        <f>D28*[1]YouTube!D28</f>
         <v>0</v>
       </c>
       <c r="E88" s="7"/>
@@ -13513,15 +13395,12 @@
         <v>26</v>
       </c>
       <c r="B89" s="7">
-        <f>B29*[1]YouTube!B29</f>
         <v>0</v>
       </c>
       <c r="C89" s="7">
-        <f>C29*[1]YouTube!C29</f>
         <v>0</v>
       </c>
       <c r="D89" s="7">
-        <f>D29*[1]YouTube!D29</f>
         <v>0</v>
       </c>
       <c r="E89" s="7"/>
@@ -13561,15 +13440,12 @@
         <v>27</v>
       </c>
       <c r="B90" s="7">
-        <f>B30*[1]YouTube!B30</f>
         <v>0</v>
       </c>
       <c r="C90" s="7">
-        <f>C30*[1]YouTube!C30</f>
         <v>0</v>
       </c>
       <c r="D90" s="7">
-        <f>D30*[1]YouTube!D30</f>
         <v>0</v>
       </c>
       <c r="E90" s="7"/>
@@ -13609,15 +13485,12 @@
         <v>28</v>
       </c>
       <c r="B91" s="7">
-        <f>B31*[1]YouTube!B31</f>
         <v>0</v>
       </c>
       <c r="C91" s="7">
-        <f>C31*[1]YouTube!C31</f>
         <v>0</v>
       </c>
       <c r="D91" s="7">
-        <f>D31*[1]YouTube!D31</f>
         <v>0</v>
       </c>
       <c r="E91" s="7"/>
@@ -13657,15 +13530,12 @@
         <v>29</v>
       </c>
       <c r="B92" s="7">
-        <f>B32*[1]YouTube!B32</f>
         <v>0</v>
       </c>
       <c r="C92" s="7">
-        <f>C32*[1]YouTube!C32</f>
         <v>0</v>
       </c>
       <c r="D92" s="7">
-        <f>D32*[1]YouTube!D32</f>
         <v>0</v>
       </c>
       <c r="E92" s="7"/>
@@ -13705,15 +13575,12 @@
         <v>30</v>
       </c>
       <c r="B93" s="7">
-        <f>B33*[1]YouTube!B33</f>
         <v>0</v>
       </c>
       <c r="C93" s="7">
-        <f>C33*[1]YouTube!C33</f>
         <v>0</v>
       </c>
       <c r="D93" s="7">
-        <f>D33*[1]YouTube!D33</f>
         <v>0</v>
       </c>
       <c r="E93" s="7"/>
@@ -13753,15 +13620,12 @@
         <v>31</v>
       </c>
       <c r="B94" s="7">
-        <f>B34*[1]YouTube!B34</f>
         <v>0</v>
       </c>
       <c r="C94" s="7">
-        <f>C34*[1]YouTube!C34</f>
         <v>0</v>
       </c>
       <c r="D94" s="7">
-        <f>D34*[1]YouTube!D34</f>
         <v>0</v>
       </c>
       <c r="E94" s="7"/>
@@ -13801,15 +13665,12 @@
         <v>32</v>
       </c>
       <c r="B95" s="7">
-        <f>B35*[1]YouTube!B35</f>
         <v>0</v>
       </c>
       <c r="C95" s="7">
-        <f>C35*[1]YouTube!C35</f>
         <v>0</v>
       </c>
       <c r="D95" s="7">
-        <f>D35*[1]YouTube!D35</f>
         <v>0</v>
       </c>
       <c r="E95" s="7"/>
@@ -13849,15 +13710,12 @@
         <v>33</v>
       </c>
       <c r="B96" s="7">
-        <f>B36*[1]YouTube!B36</f>
         <v>0</v>
       </c>
       <c r="C96" s="7">
-        <f>C36*[1]YouTube!C36</f>
         <v>0</v>
       </c>
       <c r="D96" s="7">
-        <f>D36*[1]YouTube!D36</f>
         <v>0</v>
       </c>
       <c r="E96" s="7"/>
@@ -13897,15 +13755,12 @@
         <v>34</v>
       </c>
       <c r="B97" s="7">
-        <f>B37*[1]YouTube!B37</f>
         <v>0</v>
       </c>
       <c r="C97" s="7">
-        <f>C37*[1]YouTube!C37</f>
         <v>0</v>
       </c>
       <c r="D97" s="7">
-        <f>D37*[1]YouTube!D37</f>
         <v>0</v>
       </c>
       <c r="E97" s="7"/>
@@ -13945,15 +13800,12 @@
         <v>35</v>
       </c>
       <c r="B98" s="7">
-        <f>B38*[1]YouTube!B38</f>
         <v>0</v>
       </c>
       <c r="C98" s="7">
-        <f>C38*[1]YouTube!C38</f>
         <v>0</v>
       </c>
       <c r="D98" s="7">
-        <f>D38*[1]YouTube!D38</f>
         <v>0</v>
       </c>
       <c r="E98" s="7"/>
@@ -13993,15 +13845,12 @@
         <v>36</v>
       </c>
       <c r="B99" s="7">
-        <f>B39*[1]YouTube!B39</f>
         <v>0</v>
       </c>
       <c r="C99" s="7">
-        <f>C39*[1]YouTube!C39</f>
         <v>0</v>
       </c>
       <c r="D99" s="7">
-        <f>D39*[1]YouTube!D39</f>
         <v>0</v>
       </c>
       <c r="E99" s="7"/>
@@ -14041,15 +13890,12 @@
         <v>37</v>
       </c>
       <c r="B100" s="7">
-        <f>B40*[1]YouTube!B40</f>
         <v>0</v>
       </c>
       <c r="C100" s="7">
-        <f>C40*[1]YouTube!C40</f>
         <v>0</v>
       </c>
       <c r="D100" s="7">
-        <f>D40*[1]YouTube!D40</f>
         <v>0</v>
       </c>
       <c r="E100" s="7"/>
@@ -14089,15 +13935,12 @@
         <v>38</v>
       </c>
       <c r="B101" s="7">
-        <f>B41*[1]YouTube!B41</f>
         <v>0</v>
       </c>
       <c r="C101" s="7">
-        <f>C41*[1]YouTube!C41</f>
         <v>0</v>
       </c>
       <c r="D101" s="7">
-        <f>D41*[1]YouTube!D41</f>
         <v>0</v>
       </c>
       <c r="E101" s="7"/>
@@ -14137,15 +13980,12 @@
         <v>39</v>
       </c>
       <c r="B102" s="7">
-        <f>B42*[1]YouTube!B42</f>
         <v>0</v>
       </c>
       <c r="C102" s="7">
-        <f>C42*[1]YouTube!C42</f>
         <v>0</v>
       </c>
       <c r="D102" s="7">
-        <f>D42*[1]YouTube!D42</f>
         <v>0</v>
       </c>
       <c r="E102" s="7"/>
@@ -14185,15 +14025,12 @@
         <v>40</v>
       </c>
       <c r="B103" s="7">
-        <f>B43*[1]YouTube!B43</f>
         <v>0</v>
       </c>
       <c r="C103" s="7">
-        <f>C43*[1]YouTube!C43</f>
         <v>0</v>
       </c>
       <c r="D103" s="7">
-        <f>D43*[1]YouTube!D43</f>
         <v>0</v>
       </c>
       <c r="E103" s="7"/>
@@ -14233,15 +14070,12 @@
         <v>41</v>
       </c>
       <c r="B104" s="7">
-        <f>B44*[1]YouTube!B44</f>
         <v>0</v>
       </c>
       <c r="C104" s="7">
-        <f>C44*[1]YouTube!C44</f>
         <v>0</v>
       </c>
       <c r="D104" s="7">
-        <f>D44*[1]YouTube!D44</f>
         <v>0</v>
       </c>
       <c r="E104" s="7"/>
@@ -14281,15 +14115,12 @@
         <v>42</v>
       </c>
       <c r="B105" s="7">
-        <f>B45*[1]YouTube!B45</f>
         <v>0</v>
       </c>
       <c r="C105" s="7">
-        <f>C45*[1]YouTube!C45</f>
         <v>0</v>
       </c>
       <c r="D105" s="7">
-        <f>D45*[1]YouTube!D45</f>
         <v>0</v>
       </c>
       <c r="E105" s="7"/>
@@ -14329,15 +14160,12 @@
         <v>43</v>
       </c>
       <c r="B106" s="7">
-        <f>B46*[1]YouTube!B46</f>
         <v>0</v>
       </c>
       <c r="C106" s="7">
-        <f>C46*[1]YouTube!C46</f>
         <v>0</v>
       </c>
       <c r="D106" s="7">
-        <f>D46*[1]YouTube!D46</f>
         <v>0</v>
       </c>
       <c r="E106" s="7"/>
@@ -14377,15 +14205,12 @@
         <v>44</v>
       </c>
       <c r="B107" s="7">
-        <f>B47*[1]YouTube!B47</f>
         <v>0</v>
       </c>
       <c r="C107" s="7">
-        <f>C47*[1]YouTube!C47</f>
         <v>0</v>
       </c>
       <c r="D107" s="7">
-        <f>D47*[1]YouTube!D47</f>
         <v>0</v>
       </c>
       <c r="E107" s="7"/>
@@ -14425,15 +14250,12 @@
         <v>45</v>
       </c>
       <c r="B108" s="7">
-        <f>B48*[1]YouTube!B48</f>
         <v>0</v>
       </c>
       <c r="C108" s="7">
-        <f>C48*[1]YouTube!C48</f>
         <v>0</v>
       </c>
       <c r="D108" s="7">
-        <f>D48*[1]YouTube!D48</f>
         <v>0</v>
       </c>
       <c r="E108" s="7"/>
@@ -14473,15 +14295,12 @@
         <v>46</v>
       </c>
       <c r="B109" s="7">
-        <f>B49*[1]YouTube!B49</f>
         <v>0</v>
       </c>
       <c r="C109" s="7">
-        <f>C49*[1]YouTube!C49</f>
         <v>0</v>
       </c>
       <c r="D109" s="7">
-        <f>D49*[1]YouTube!D49</f>
         <v>0</v>
       </c>
       <c r="E109" s="7"/>
@@ -14521,15 +14340,12 @@
         <v>47</v>
       </c>
       <c r="B110" s="7">
-        <f>B50*[1]YouTube!B50</f>
         <v>0</v>
       </c>
       <c r="C110" s="7">
-        <f>C50*[1]YouTube!C50</f>
         <v>0</v>
       </c>
       <c r="D110" s="7">
-        <f>D50*[1]YouTube!D50</f>
         <v>0</v>
       </c>
       <c r="E110" s="7"/>
@@ -14569,15 +14385,12 @@
         <v>48</v>
       </c>
       <c r="B111" s="7">
-        <f>B51*[1]YouTube!B51</f>
         <v>0</v>
       </c>
       <c r="C111" s="7">
-        <f>C51*[1]YouTube!C51</f>
         <v>0</v>
       </c>
       <c r="D111" s="7">
-        <f>D51*[1]YouTube!D51</f>
         <v>0</v>
       </c>
       <c r="E111" s="7"/>
@@ -14617,15 +14430,12 @@
         <v>49</v>
       </c>
       <c r="B112" s="7">
-        <f>B52*[1]YouTube!B52</f>
         <v>0</v>
       </c>
       <c r="C112" s="7">
-        <f>C52*[1]YouTube!C52</f>
         <v>0</v>
       </c>
       <c r="D112" s="7">
-        <f>D52*[1]YouTube!D52</f>
         <v>0</v>
       </c>
       <c r="E112" s="7"/>
@@ -14665,15 +14475,12 @@
         <v>50</v>
       </c>
       <c r="B113" s="7">
-        <f>B53*[1]YouTube!B53</f>
         <v>0</v>
       </c>
       <c r="C113" s="7">
-        <f>C53*[1]YouTube!C53</f>
         <v>0</v>
       </c>
       <c r="D113" s="7">
-        <f>D53*[1]YouTube!D53</f>
         <v>0</v>
       </c>
       <c r="E113" s="7"/>
@@ -14713,15 +14520,12 @@
         <v>51</v>
       </c>
       <c r="B114" s="7">
-        <f>B54*[1]YouTube!B54</f>
         <v>0</v>
       </c>
       <c r="C114" s="7">
-        <f>C54*[1]YouTube!C54</f>
         <v>0</v>
       </c>
       <c r="D114" s="7">
-        <f>D54*[1]YouTube!D54</f>
         <v>0</v>
       </c>
       <c r="E114" s="7"/>
@@ -14761,15 +14565,12 @@
         <v>52</v>
       </c>
       <c r="B115" s="7">
-        <f>B55*[1]YouTube!B55</f>
         <v>0</v>
       </c>
       <c r="C115" s="7">
-        <f>C55*[1]YouTube!C55</f>
         <v>0</v>
       </c>
       <c r="D115" s="7">
-        <f>D55*[1]YouTube!D55</f>
         <v>0</v>
       </c>
       <c r="E115" s="7"/>
@@ -14809,15 +14610,12 @@
         <v>53</v>
       </c>
       <c r="B116" s="7">
-        <f>B56*[1]YouTube!B56</f>
         <v>0</v>
       </c>
       <c r="C116" s="7">
-        <f>C56*[1]YouTube!C56</f>
         <v>0</v>
       </c>
       <c r="D116" s="7">
-        <f>D56*[1]YouTube!D56</f>
         <v>0</v>
       </c>
       <c r="E116" s="7"/>
@@ -14857,15 +14655,12 @@
         <v>54</v>
       </c>
       <c r="B117" s="7">
-        <f>B57*[1]YouTube!B57</f>
         <v>0</v>
       </c>
       <c r="C117" s="7">
-        <f>C57*[1]YouTube!C57</f>
         <v>0</v>
       </c>
       <c r="D117" s="7">
-        <f>D57*[1]YouTube!D57</f>
         <v>0</v>
       </c>
       <c r="E117" s="7"/>
@@ -14905,15 +14700,12 @@
         <v>55</v>
       </c>
       <c r="B118" s="7">
-        <f>B58*[1]YouTube!B58</f>
         <v>0</v>
       </c>
       <c r="C118" s="7">
-        <f>C58*[1]YouTube!C58</f>
         <v>0</v>
       </c>
       <c r="D118" s="7">
-        <f>D58*[1]YouTube!D58</f>
         <v>0</v>
       </c>
       <c r="E118" s="7"/>
